--- a/docs/Classifcation Reports/RandomForestClassifier()_3.xlsx
+++ b/docs/Classifcation Reports/RandomForestClassifier()_3.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8023340627279358</v>
+        <v>0.8118518518518518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9499136442141624</v>
+        <v>0.9489177489177489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8699090549624358</v>
+        <v>0.8750499001996008</v>
       </c>
       <c r="E2" t="n">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9592476489028213</v>
+        <v>0.9362363919129082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9459041731066461</v>
+        <v>0.9304482225656878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9525291828793774</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E3" t="n">
         <v>647</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8580814717477004</v>
+        <v>0.8391959798994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244949494949495</v>
+        <v>0.8487928843710292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.840952994204765</v>
+        <v>0.8439671509791535</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.9139072847682119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4606413994169096</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6159844054580897</v>
+        <v>0.5498007968127491</v>
       </c>
       <c r="E5" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8581632653061224</v>
+        <v>0.8517006802721089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8581632653061224</v>
+        <v>0.8517006802721089</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8581632653061224</v>
+        <v>0.8517006802721089</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8581632653061224</v>
+        <v>0.8517006802721089</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.887268737021085</v>
+        <v>0.8752978771081172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7952385415581669</v>
+        <v>0.7803303122542148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.819843909376167</v>
+        <v>0.8005377953312092</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8667091273460448</v>
+        <v>0.8587287508813221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8581632653061224</v>
+        <v>0.8517006802721089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8506661528747471</v>
+        <v>0.8407250098296173</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
